--- a/01_analyses_states/Assam/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Assam/results/SoIB_summaries.xlsx
@@ -546,10 +546,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -559,10 +556,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -572,10 +566,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>95</v>
-      </c>
-      <c r="C4">
-        <v>16.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +576,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>225</v>
-      </c>
-      <c r="C5">
-        <v>39.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,10 +586,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>116</v>
-      </c>
-      <c r="C6">
-        <v>20.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -611,10 +596,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>113</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +727,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>565</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +737,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,33 +773,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Range</t>
+          <t>IUCN</t>
         </is>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>30.3</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>IUCN</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>69.7</v>
       </c>
     </row>
   </sheetData>

--- a/01_analyses_states/Assam/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Assam/results/SoIB_summaries.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Range Status" sheetId="2" r:id="rId2"/>
     <sheet name="Priority Status" sheetId="3" r:id="rId3"/>
     <sheet name="Species qualification" sheetId="4" r:id="rId4"/>
-    <sheet name="High Priority break-up" sheetId="5" r:id="rId5"/>
+    <sheet name="Interannual update - High Pri" sheetId="5" r:id="rId5"/>
+    <sheet name="Major update - High Priority " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -395,16 +396,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
@@ -414,16 +415,16 @@
         </is>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
       <c r="D3">
-        <v>20.8</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>8.300000000000001</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="4">
@@ -433,16 +434,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>70.8</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>75</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="5">
@@ -452,16 +453,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>4.2</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6">
@@ -471,16 +472,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>11.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7">
@@ -490,10 +491,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -503,10 +504,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C8">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +632,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +642,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>136</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +652,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>396</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -687,11 +688,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SoIB 2023 Assessment</t>
+          <t>SoIB Assessment</t>
         </is>
       </c>
       <c r="B2">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3">
@@ -701,10 +702,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -717,7 +718,7 @@
         <v>136</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -736,6 +737,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Break-up</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (no.)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (perc.)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (no.)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (perc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trend New</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>57.3</v>
+      </c>
+      <c r="D2">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IUCN</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>42.7</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>21.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/01_analyses_states/Assam/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Assam/results/SoIB_summaries.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="4">
@@ -437,13 +437,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -453,16 +453,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="6">
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +718,7 @@
         <v>136</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>57.3</v>
+        <v>58.3</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>78.7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>42.7</v>
+        <v>41.7</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>21.3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
